--- a/Documentacion/ResultadosEstadisticos/Graficos.xlsx
+++ b/Documentacion/ResultadosEstadisticos/Graficos.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="60040" sheetId="4" r:id="rId1"/>
     <sheet name="60060" sheetId="3" r:id="rId2"/>
     <sheet name="60090" sheetId="1" r:id="rId3"/>
     <sheet name="R100050" sheetId="2" r:id="rId4"/>
+    <sheet name="R100075" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>Secuencial aleatorio</t>
   </si>
@@ -50,80 +51,119 @@
     <t>Minimo: 200</t>
   </si>
   <si>
-    <t>Corrida: 6812</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matula </t>
-  </si>
-  <si>
-    <t>Minimo: 211</t>
-  </si>
-  <si>
-    <t>Corrida: 3359</t>
   </si>
   <si>
     <t xml:space="preserve">Welsh-Powell </t>
   </si>
   <si>
-    <t>Minimo: 185</t>
-  </si>
-  <si>
-    <t>Corrida: 8575</t>
-  </si>
-  <si>
-    <t>Minimo: 335</t>
-  </si>
-  <si>
-    <t>Corrida: 2473</t>
-  </si>
-  <si>
-    <t>Corrida: 7718</t>
-  </si>
-  <si>
-    <t>Corrida: 9561</t>
-  </si>
-  <si>
-    <t>Minimo: 99</t>
-  </si>
-  <si>
-    <t>Corrida: 3338</t>
-  </si>
-  <si>
     <t>Minimo: 100</t>
   </si>
   <si>
-    <t>Corrida: 260</t>
+    <t>Minimo: 63</t>
   </si>
   <si>
-    <t>Minimo: 88</t>
+    <t>Corrida: 432</t>
   </si>
   <si>
-    <t>Corrida: 239</t>
+    <t>Minimo: 66</t>
   </si>
   <si>
-    <t>Minimo: 137</t>
+    <t>Corrida: 259</t>
   </si>
   <si>
-    <t>Corrida: 315</t>
+    <t>Minimo: 61</t>
   </si>
   <si>
-    <t>Minimo: 156</t>
+    <t>Corrida: 169</t>
   </si>
   <si>
-    <t>Corrida: 346</t>
+    <t>600 nodos</t>
   </si>
   <si>
-    <t>Minimo: 138</t>
+    <t>40% adyacencia</t>
   </si>
   <si>
-    <t>Corrida: 0</t>
+    <t>Corrida: 53</t>
+  </si>
+  <si>
+    <t>Minimo: 104</t>
+  </si>
+  <si>
+    <t>Corrida: 7</t>
+  </si>
+  <si>
+    <t>Minimo: 96</t>
+  </si>
+  <si>
+    <t>Corrida: 256</t>
+  </si>
+  <si>
+    <t>60% adyacencia</t>
+  </si>
+  <si>
+    <t>Corrida: 389</t>
+  </si>
+  <si>
+    <t>Minimo: 207</t>
+  </si>
+  <si>
+    <t>Corrida: 152</t>
+  </si>
+  <si>
+    <t>Minimo: 193</t>
+  </si>
+  <si>
+    <t>Corrida: 810</t>
+  </si>
+  <si>
+    <t>Minimo: 337</t>
+  </si>
+  <si>
+    <t>Corrida: 336</t>
+  </si>
+  <si>
+    <t>Minimo: 336</t>
+  </si>
+  <si>
+    <t>Corrida: 216</t>
+  </si>
+  <si>
+    <t>Corrida: 816</t>
+  </si>
+  <si>
+    <t>Minimo: 500</t>
+  </si>
+  <si>
+    <t>Corrida: 173</t>
+  </si>
+  <si>
+    <t>Corrida: 220</t>
+  </si>
+  <si>
+    <t>Corrida: 380</t>
+  </si>
+  <si>
+    <t>90% adyacencia</t>
+  </si>
+  <si>
+    <t>1000 nodos</t>
+  </si>
+  <si>
+    <t>50% adyacencia</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>75% adyacencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +179,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,13 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +253,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>600 nodos - 40%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> adyacencia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -209,7 +325,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60040'!$A$19:$B$19</c:f>
+              <c:f>'60040'!$A$20:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -232,96 +348,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60040'!$A$21:$A$33</c:f>
+              <c:f>'60040'!$A$23:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>149</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60040'!$B$21:$B$34</c:f>
+              <c:f>'60040'!$B$23:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>610</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1593</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2450</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2191</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1590</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,7 +418,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60040'!$D$19:$E$19</c:f>
+              <c:f>'60040'!$D$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -361,72 +441,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60040'!$D$21:$D$29</c:f>
+              <c:f>'60040'!$D$22:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>156</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60040'!$E$21:$E$29</c:f>
+              <c:f>'60040'!$E$22:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>482</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>259</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>214</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7402</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1307</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,7 +523,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60040'!$G$19:$H$19</c:f>
+              <c:f>'60040'!$G$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -466,24 +546,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60040'!$G$21</c:f>
+              <c:f>'60040'!$G$22:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60040'!$H$21</c:f>
+              <c:f>'60040'!$H$22:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,6 +626,7 @@
         <c:axId val="1449586080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -721,6 +838,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>600 nodos - 60% adyacencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -732,7 +905,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60060'!$A$19:$B$19</c:f>
+              <c:f>'60060'!$A$20:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -755,125 +928,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60060'!$A$21:$A$38</c:f>
+              <c:f>'60060'!$A$22:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60060'!$B$21:$B$38</c:f>
+              <c:f>'60060'!$B$22:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>531</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>836</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1231</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1460</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1542</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -891,7 +1016,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60060'!$D$19:$E$19</c:f>
+              <c:f>'60060'!$D$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -914,96 +1039,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60060'!$D$21:$D$33</c:f>
+              <c:f>'60060'!$D$22:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60060'!$E$21:$E$33</c:f>
+              <c:f>'60060'!$E$22:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>461</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2088</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2687</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2193</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1197</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>846</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1127,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60060'!$G$19:$H$19</c:f>
+              <c:f>'60060'!$G$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1043,54 +1150,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60060'!$G$21:$G$26</c:f>
+              <c:f>'60060'!$G$22:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93</c:v>
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60060'!$H$21:$H$26</c:f>
+              <c:f>'60060'!$H$22:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1023</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7030</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1652</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,6 +1459,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>600 nodos - 90% adyacencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1339,11 +1526,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60090'!$G$19:$H$19</c:f>
+              <c:f>'60090'!$A$20:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Welsh-powell</c:v>
+                  <c:v>Secuencial aleatorio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1362,96 +1549,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60090'!$G$21:$G$33</c:f>
+              <c:f>'60090'!$A$22:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>192</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>193</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>194</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>196</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>197</c:v>
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60090'!$H$21:$H$33</c:f>
+              <c:f>'60090'!$B$22:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1103</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2166</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2695</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2253</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1020</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>324</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1676,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80A5-42A6-BC22-FE1F757D9F2D}"/>
+              <c16:uniqueId val="{00000001-97D5-40B0-AF50-3D6EB1E02EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1468,7 +1685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60090'!$D$19:$E$19</c:f>
+              <c:f>'60090'!$D$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,125 +1708,113 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60090'!$D$21:$D$38</c:f>
+              <c:f>'60090'!$D$22:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60090'!$E$21:$E$38</c:f>
+              <c:f>'60090'!$E$22:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>542</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1145</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1656</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1890</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1655</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1169</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>738</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>467</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>247</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1618,7 +1823,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80A5-42A6-BC22-FE1F757D9F2D}"/>
+              <c16:uniqueId val="{00000002-97D5-40B0-AF50-3D6EB1E02EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1627,11 +1832,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60090'!$A$19:$B$19</c:f>
+              <c:f>'60090'!$G$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Secuencial aleatorio</c:v>
+                  <c:v>Welsh-powell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1650,180 +1855,108 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60090'!$A$21:$A$47</c:f>
+              <c:f>'60090'!$G$22:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60090'!$B$21:$B$47</c:f>
+              <c:f>'60090'!$H$22:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>230</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>407</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>672</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>901</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1108</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1299</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1372</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1124</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,7 +1964,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80A5-42A6-BC22-FE1F757D9F2D}"/>
+              <c16:uniqueId val="{00000003-97D5-40B0-AF50-3D6EB1E02EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2061,6 +2194,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Regular - 1000 nodos -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 50% adyacencia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2072,7 +2266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R100050'!$A$19:$B$19</c:f>
+              <c:f>'R100050'!$A$20:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2095,269 +2289,227 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R100050'!$A$21:$A$62</c:f>
+              <c:f>'R100050'!$A$22:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>337</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>338</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>340</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>342</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>343</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>345</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>347</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>349</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>350</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>351</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>352</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>353</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>354</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>356</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>357</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>358</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>359</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>361</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>362</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>363</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>364</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>366</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>367</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>368</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R100050'!$B$21:$B$62</c:f>
+              <c:f>'R100050'!$B$22:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>724</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>624</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2375,7 +2527,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R100050'!$D$19:$E$19</c:f>
+              <c:f>'R100050'!$D$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2398,263 +2550,221 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R100050'!$D$21:$D$61</c:f>
+              <c:f>'R100050'!$D$22:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>337</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>338</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>340</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>342</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>343</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>345</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>347</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>349</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>350</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>351</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>352</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>353</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>354</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>355</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>356</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>357</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>358</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>359</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>361</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>362</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>363</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>364</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>365</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>366</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>367</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R100050'!$E$21:$E$61</c:f>
+              <c:f>'R100050'!$E$22:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>658</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2672,7 +2782,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R100050'!$G$19:$H$19</c:f>
+              <c:f>'R100050'!$G$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2695,269 +2805,233 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R100050'!$G$21:$G$62</c:f>
+              <c:f>'R100050'!$G$22:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>337</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>338</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>340</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>342</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>343</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>344</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>345</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>347</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>349</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>350</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>351</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>352</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>353</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>354</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>355</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>356</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>357</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>358</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>359</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>361</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>362</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>363</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>364</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>365</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>366</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>367</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>368</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>369</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R100050'!$H$21:$H$62</c:f>
+              <c:f>'R100050'!$H$22:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>157</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>131</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>78</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3113,6 +3187,1187 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Regular - 1000 nodos - 75% adyacencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R100075'!$A$20:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial aleatorio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'R100075'!$A$22:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'R100075'!$B$22:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C411-44BA-AF16-6A3CC1097603}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R100075'!$D$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matula</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'R100075'!$D$22:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'R100075'!$E$22:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C411-44BA-AF16-6A3CC1097603}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R100075'!$G$20:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Welsh-powell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'R100075'!$G$22:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'R100075'!$H$22:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C411-44BA-AF16-6A3CC1097603}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453388608"/>
+        <c:axId val="453390272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453388608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453390272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="453390272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453388608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3310,6 +4565,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5374,19 +6669,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5415,13 +7226,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5450,13 +7261,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5485,14 +7296,49 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5777,399 +7623,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>28</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>137</v>
-      </c>
-      <c r="B21">
-        <v>107</v>
-      </c>
-      <c r="D21">
-        <v>156</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>138</v>
-      </c>
-      <c r="H21">
-        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="B22">
-        <v>610</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="E22">
-        <v>482</v>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="B23">
-        <v>1593</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="E23">
-        <v>259</v>
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>62</v>
+      </c>
+      <c r="H23">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="B24">
-        <v>2450</v>
+        <v>84</v>
       </c>
       <c r="D24">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>214</v>
+        <v>133</v>
+      </c>
+      <c r="G24">
+        <v>63</v>
+      </c>
+      <c r="H24">
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B25">
-        <v>2191</v>
+        <v>257</v>
       </c>
       <c r="D25">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>7402</v>
+        <v>324</v>
+      </c>
+      <c r="G25">
+        <v>64</v>
+      </c>
+      <c r="H25">
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="B26">
-        <v>1590</v>
+        <v>378</v>
       </c>
       <c r="D26">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>1307</v>
+        <v>340</v>
+      </c>
+      <c r="G26">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B27">
-        <v>839</v>
+        <v>195</v>
       </c>
       <c r="D27">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="E27">
-        <v>88</v>
+        <v>140</v>
+      </c>
+      <c r="G27">
+        <v>66</v>
+      </c>
+      <c r="H27">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="B28">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="E28">
-        <v>107</v>
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>67</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="B29">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="E29">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>146</v>
-      </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
       <c r="D30">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="E30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>147</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>166</v>
-      </c>
-      <c r="E31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>148</v>
-      </c>
-      <c r="B32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>167</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>149</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>169</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A22:B29">
+    <sortCondition ref="A22"/>
+  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H20"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>22</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>99</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>88</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6177,19 +8004,19 @@
         <v>100</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E22">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H22">
-        <v>1023</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6197,19 +8024,19 @@
         <v>101</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E23">
+        <v>44</v>
+      </c>
+      <c r="G23">
         <v>97</v>
       </c>
-      <c r="G23">
-        <v>90</v>
-      </c>
       <c r="H23">
-        <v>7030</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6217,19 +8044,19 @@
         <v>102</v>
       </c>
       <c r="B24">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E24">
-        <v>461</v>
+        <v>100</v>
       </c>
       <c r="G24">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H24">
-        <v>1652</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6237,19 +8064,19 @@
         <v>103</v>
       </c>
       <c r="B25">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="D25">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E25">
-        <v>2088</v>
+        <v>230</v>
       </c>
       <c r="G25">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H25">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6257,19 +8084,19 @@
         <v>104</v>
       </c>
       <c r="B26">
-        <v>531</v>
+        <v>275</v>
       </c>
       <c r="D26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E26">
-        <v>2687</v>
+        <v>248</v>
       </c>
       <c r="G26">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6277,17 +8104,19 @@
         <v>105</v>
       </c>
       <c r="B27">
-        <v>836</v>
+        <v>165</v>
       </c>
       <c r="D27">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E27">
-        <v>2193</v>
+        <v>194</v>
+      </c>
+      <c r="G27">
+        <v>101</v>
       </c>
       <c r="H27">
-        <f>SUM(H21:H26)</f>
-        <v>10000</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6295,13 +8124,19 @@
         <v>106</v>
       </c>
       <c r="B28">
-        <v>1231</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E28">
-        <v>1197</v>
+        <v>115</v>
+      </c>
+      <c r="G28">
+        <v>102</v>
+      </c>
+      <c r="H28">
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6309,13 +8144,19 @@
         <v>107</v>
       </c>
       <c r="B29">
-        <v>1460</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>846</v>
+        <v>44</v>
+      </c>
+      <c r="G29">
+        <v>103</v>
+      </c>
+      <c r="H29">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6323,13 +8164,19 @@
         <v>108</v>
       </c>
       <c r="B30">
-        <v>1666</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>104</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6337,98 +8184,26 @@
         <v>109</v>
       </c>
       <c r="B31">
-        <v>1542</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E31">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>110</v>
-      </c>
-      <c r="B32">
-        <v>1061</v>
-      </c>
-      <c r="D32">
-        <v>111</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>111</v>
-      </c>
-      <c r="B33">
-        <v>647</v>
-      </c>
-      <c r="D33">
-        <v>112</v>
-      </c>
-      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>105</v>
+      </c>
+      <c r="H31">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>112</v>
-      </c>
-      <c r="B34">
-        <v>313</v>
-      </c>
-      <c r="E34">
-        <f>SUM(E21:E33)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>113</v>
-      </c>
-      <c r="B35">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>114</v>
-      </c>
-      <c r="B36">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>115</v>
-      </c>
-      <c r="B37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>116</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f>SUM(B21:B38)</f>
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6440,555 +8215,472 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>200</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>211</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>185</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H22">
-        <f>5+7</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E23">
-        <f>28+27</f>
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H23">
-        <f>27+25</f>
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E24">
-        <f>110+85</f>
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H24">
-        <f>146+153</f>
-        <v>299</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E25">
-        <f>275+267</f>
-        <v>542</v>
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H25">
-        <f>547+556</f>
-        <v>1103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2">
-        <f>38+22</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E26">
-        <f>570+575</f>
-        <v>1145</v>
+        <v>73</v>
       </c>
       <c r="G26">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H26">
-        <f>1055+1111</f>
-        <v>2166</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2">
-        <f>46+64</f>
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E27">
-        <f>859+797</f>
-        <v>1656</v>
+        <v>95</v>
       </c>
       <c r="G27">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H27">
-        <f>1372+1323</f>
-        <v>2695</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2">
-        <f>120+110</f>
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E28">
-        <f>908+982</f>
-        <v>1890</v>
+        <v>123</v>
       </c>
       <c r="G28">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H28">
-        <f>1125+1128</f>
-        <v>2253</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2">
-        <f>193+214</f>
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="D29">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E29">
-        <f>824+831</f>
-        <v>1655</v>
+        <v>176</v>
       </c>
       <c r="G29">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H29">
-        <f>522+498</f>
-        <v>1020</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2">
-        <f>336+336</f>
-        <v>672</v>
+        <v>145</v>
       </c>
       <c r="D30">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E30">
-        <f>573+596</f>
-        <v>1169</v>
+        <v>141</v>
       </c>
       <c r="G30">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H30">
-        <f>166+158</f>
-        <v>324</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2">
-        <f>449+452</f>
-        <v>901</v>
+        <v>161</v>
       </c>
       <c r="D31">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E31">
-        <f>379+359</f>
-        <v>738</v>
+        <v>135</v>
       </c>
       <c r="G31">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H31">
-        <f>30+34</f>
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="2">
-        <f>560+548</f>
-        <v>1108</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E32">
-        <f>234+233</f>
-        <v>467</v>
+        <v>98</v>
       </c>
       <c r="G32">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H32">
-        <f>4+6</f>
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" s="2">
-        <f>669+630</f>
-        <v>1299</v>
+        <v>95</v>
       </c>
       <c r="D33">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E33">
-        <f>124+123</f>
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="G33">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="2">
-        <f>687+685</f>
-        <v>1372</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E34">
-        <f>52+76</f>
-        <v>128</v>
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>206</v>
       </c>
       <c r="H34">
-        <f>SUM(H21:H33)</f>
-        <v>10000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="2">
-        <f>547+577</f>
-        <v>1124</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E35">
-        <f>42+31</f>
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>207</v>
+      </c>
+      <c r="H35">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2">
-        <f>476+517</f>
-        <v>993</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E36">
-        <f>13+13</f>
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>208</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="2">
-        <f>353+360</f>
-        <v>713</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E37">
-        <f>2+3</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="2">
-        <f>232+213</f>
-        <v>445</v>
-      </c>
-      <c r="D38">
-        <v>228</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="2">
-        <f>148+144</f>
-        <v>292</v>
-      </c>
-      <c r="E39">
-        <f>SUM(E21:E38)</f>
-        <v>10000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>219</v>
-      </c>
-      <c r="B40" s="2">
-        <f>66+66</f>
-        <v>132</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>220</v>
-      </c>
-      <c r="B41" s="2">
-        <f>38+30</f>
-        <v>68</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>221</v>
-      </c>
-      <c r="B42" s="2">
-        <f>16+9</f>
-        <v>25</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>222</v>
-      </c>
-      <c r="B43" s="2">
-        <f>6+4</f>
-        <v>10</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>223</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>224</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>225</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>226</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f>SUM(B21:B47)</f>
-        <v>10000</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6998,957 +8690,1662 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>335</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>335</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>335</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B22">
-        <f>5+7</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>336</v>
       </c>
       <c r="E22">
-        <f>1+6</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>336</v>
       </c>
       <c r="H22">
-        <f>4+9</f>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B23">
-        <f>22+17</f>
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>337</v>
       </c>
       <c r="E23">
-        <f>21+15</f>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>337</v>
       </c>
       <c r="H23">
-        <f>13+16</f>
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B24">
-        <f>37+35</f>
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>338</v>
       </c>
       <c r="E24">
-        <f>38+55</f>
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>338</v>
       </c>
       <c r="H24">
-        <f>37+37</f>
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B25">
-        <f>79+76</f>
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>339</v>
       </c>
       <c r="E25">
-        <f>76+79</f>
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>339</v>
       </c>
       <c r="H25">
-        <f>69+69</f>
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B26">
-        <f>132+132</f>
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>340</v>
       </c>
       <c r="E26">
-        <f>125+155</f>
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="G26">
         <v>340</v>
       </c>
       <c r="H26">
-        <f>115+109</f>
-        <v>224</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B27">
-        <f>176+160</f>
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>341</v>
       </c>
       <c r="E27">
-        <f>171+170</f>
-        <v>341</v>
+        <v>23</v>
       </c>
       <c r="G27">
         <v>341</v>
       </c>
       <c r="H27">
-        <f>171+193</f>
-        <v>364</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B28">
-        <f>231+220</f>
-        <v>451</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>342</v>
       </c>
       <c r="E28">
-        <f>250+254</f>
-        <v>504</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>342</v>
       </c>
       <c r="H28">
-        <f>251+247</f>
-        <v>498</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B29">
-        <f>299+309</f>
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>343</v>
       </c>
       <c r="E29">
-        <f>293+273</f>
-        <v>566</v>
+        <v>69</v>
       </c>
       <c r="G29">
         <v>343</v>
       </c>
       <c r="H29">
-        <f>309+280</f>
-        <v>589</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B30">
-        <f>356+320</f>
-        <v>676</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>344</v>
       </c>
       <c r="E30">
-        <f>310+325</f>
-        <v>635</v>
+        <v>72</v>
       </c>
       <c r="G30">
         <v>344</v>
       </c>
       <c r="H30">
-        <f>323+336</f>
-        <v>659</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B31">
-        <f>334+382</f>
-        <v>716</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>345</v>
       </c>
       <c r="E31">
-        <f>312+350</f>
-        <v>662</v>
+        <v>60</v>
       </c>
       <c r="G31">
         <v>345</v>
       </c>
       <c r="H31">
-        <f>334+342</f>
-        <v>676</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B32">
-        <f>318+357</f>
-        <v>675</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>346</v>
       </c>
       <c r="E32">
-        <f>345+327</f>
-        <v>672</v>
+        <v>67</v>
       </c>
       <c r="G32">
         <v>346</v>
       </c>
       <c r="H32">
-        <f>379+367</f>
-        <v>746</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B33">
-        <f>374+377</f>
-        <v>751</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>347</v>
       </c>
       <c r="E33">
-        <f>400+383</f>
-        <v>783</v>
+        <v>77</v>
       </c>
       <c r="G33">
         <v>347</v>
       </c>
       <c r="H33">
-        <f>351+369</f>
-        <v>720</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B34">
-        <f>355+369</f>
-        <v>724</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>348</v>
       </c>
       <c r="E34">
-        <f>335+350</f>
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="G34">
         <v>348</v>
       </c>
       <c r="H34">
-        <f>369+316</f>
-        <v>685</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B35">
-        <f>337+287</f>
-        <v>624</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>349</v>
       </c>
       <c r="E35">
-        <f>333+325</f>
-        <v>658</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>349</v>
       </c>
       <c r="H35">
-        <f>312+345</f>
-        <v>657</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36">
-        <f>275+324</f>
-        <v>599</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>350</v>
       </c>
       <c r="E36">
-        <f>305+300</f>
-        <v>605</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>350</v>
       </c>
       <c r="H36">
-        <f>317+285</f>
-        <v>602</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B37">
-        <f>297+265</f>
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>351</v>
       </c>
       <c r="E37">
-        <f>272+254</f>
-        <v>526</v>
+        <v>53</v>
       </c>
       <c r="G37">
         <v>351</v>
       </c>
       <c r="H37">
-        <f>281+271</f>
-        <v>552</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B38">
-        <f>226+241</f>
-        <v>467</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>352</v>
       </c>
       <c r="E38">
-        <f>235+250</f>
-        <v>485</v>
+        <v>51</v>
       </c>
       <c r="G38">
         <v>352</v>
       </c>
       <c r="H38">
-        <f>256+272</f>
-        <v>528</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39">
-        <f>186+203</f>
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>353</v>
       </c>
       <c r="E39">
-        <f>211+209</f>
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>353</v>
       </c>
       <c r="H39">
-        <f>192+207</f>
-        <v>399</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40">
-        <f>170+192</f>
-        <v>362</v>
+        <v>26</v>
       </c>
       <c r="D40">
         <v>354</v>
       </c>
       <c r="E40">
-        <f>177+160</f>
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>354</v>
       </c>
       <c r="H40">
-        <f>164+179</f>
-        <v>343</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41">
-        <f>174+135</f>
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>355</v>
       </c>
       <c r="E41">
-        <f>162+134</f>
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>355</v>
       </c>
       <c r="H41">
-        <f>133+143</f>
-        <v>276</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42">
-        <f>118+121</f>
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>356</v>
       </c>
       <c r="E42">
-        <f>130+124</f>
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="G42">
         <v>356</v>
       </c>
       <c r="H42">
-        <f>130+109</f>
-        <v>239</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43">
-        <f>88+102</f>
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>357</v>
       </c>
       <c r="E43">
-        <f>107+106</f>
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="G43">
         <v>357</v>
       </c>
       <c r="H43">
-        <f>89+104</f>
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44">
-        <f>85+70</f>
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>358</v>
       </c>
       <c r="E44">
-        <f>74+88</f>
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="G44">
         <v>358</v>
       </c>
       <c r="H44">
-        <f>79+78</f>
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45">
-        <f>82+69</f>
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>359</v>
       </c>
       <c r="E45">
-        <f>80+74</f>
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>359</v>
       </c>
       <c r="H45">
-        <f>59+72</f>
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46">
-        <f>58+55</f>
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>360</v>
       </c>
       <c r="E46">
-        <f>51+52</f>
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>360</v>
       </c>
       <c r="H46">
-        <f>56+65</f>
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47">
-        <f>50+43</f>
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>361</v>
       </c>
       <c r="E47">
-        <f>47+46</f>
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>361</v>
       </c>
       <c r="H47">
-        <f>42+36</f>
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48">
-        <f>29+37</f>
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>362</v>
       </c>
       <c r="E48">
-        <f>31+29</f>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <v>362</v>
       </c>
       <c r="H48">
-        <f>43+35</f>
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B49">
-        <f>28+22</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>363</v>
       </c>
       <c r="E49">
-        <f>28+28</f>
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>363</v>
       </c>
       <c r="H49">
-        <f>22+32</f>
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B50">
-        <f>21+27</f>
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>364</v>
       </c>
       <c r="E50">
-        <f>23+29</f>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>364</v>
       </c>
       <c r="H50">
-        <f>32+24</f>
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B51">
-        <f>12+18</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>365</v>
       </c>
       <c r="E51">
-        <f>16+12</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>365</v>
       </c>
       <c r="H51">
-        <f>17+18</f>
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B52">
-        <f>13+5</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>366</v>
       </c>
       <c r="E52">
-        <f>11+16</f>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>366</v>
       </c>
       <c r="H52">
-        <f>10+14</f>
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B53">
-        <f>6+3</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>367</v>
       </c>
       <c r="E53">
-        <f>9+5</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>367</v>
       </c>
       <c r="H53">
-        <f>13+6</f>
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B54">
-        <f>11+5</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>368</v>
       </c>
       <c r="E54">
-        <f>7+4</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>368</v>
       </c>
       <c r="H54">
-        <f>6+8</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B55">
-        <f>4+3</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E55">
-        <f>3+3</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>369</v>
       </c>
       <c r="H55">
-        <f>8+2</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B56">
-        <f>5+2</f>
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>370</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>370</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>377</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G21:H56">
+    <sortCondition ref="G21"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>501</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>501</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>501</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>502</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>502</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>502</v>
+      </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>503</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>503</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>503</v>
+      </c>
+      <c r="H25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>504</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>504</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>504</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>505</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>505</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>505</v>
+      </c>
+      <c r="H27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>506</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>506</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>506</v>
+      </c>
+      <c r="H28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>507</v>
+      </c>
+      <c r="B29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>507</v>
+      </c>
+      <c r="E29">
+        <v>61</v>
+      </c>
+      <c r="G29">
+        <v>507</v>
+      </c>
+      <c r="H29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>508</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>508</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>508</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>509</v>
+      </c>
+      <c r="B31">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>509</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="G31">
+        <v>509</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>510</v>
+      </c>
+      <c r="B32">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>510</v>
+      </c>
+      <c r="E32">
+        <v>63</v>
+      </c>
+      <c r="G32">
+        <v>510</v>
+      </c>
+      <c r="H32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>511</v>
+      </c>
+      <c r="B33">
+        <v>52</v>
+      </c>
+      <c r="D33">
+        <v>511</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="G33">
+        <v>511</v>
+      </c>
+      <c r="H33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>512</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>512</v>
+      </c>
+      <c r="E34">
+        <v>59</v>
+      </c>
+      <c r="G34">
+        <v>512</v>
+      </c>
+      <c r="H34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>513</v>
+      </c>
+      <c r="B35">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>513</v>
+      </c>
+      <c r="E35">
+        <v>58</v>
+      </c>
+      <c r="G35">
+        <v>513</v>
+      </c>
+      <c r="H35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>514</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+      <c r="D36">
+        <v>514</v>
+      </c>
+      <c r="E36">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>514</v>
+      </c>
+      <c r="H36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>515</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>515</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>515</v>
+      </c>
+      <c r="H37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>516</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>516</v>
+      </c>
+      <c r="E38">
+        <v>47</v>
+      </c>
+      <c r="G38">
+        <v>516</v>
+      </c>
+      <c r="H38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>517</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>517</v>
+      </c>
+      <c r="E39">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>517</v>
+      </c>
+      <c r="H39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>518</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>518</v>
+      </c>
+      <c r="E40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>518</v>
+      </c>
+      <c r="H40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>519</v>
+      </c>
+      <c r="B41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>519</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>519</v>
+      </c>
+      <c r="H41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>520</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>520</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>520</v>
+      </c>
+      <c r="H42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>521</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>521</v>
+      </c>
+      <c r="E43">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>521</v>
+      </c>
+      <c r="H43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>522</v>
+      </c>
+      <c r="B44">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>522</v>
+      </c>
+      <c r="E44">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>522</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>523</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>523</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <v>523</v>
+      </c>
+      <c r="H45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>524</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>524</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>524</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>525</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>525</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>525</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>526</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>526</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>526</v>
+      </c>
+      <c r="H48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>527</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>527</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>527</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>528</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>528</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>528</v>
+      </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>529</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>529</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>529</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>530</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>530</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>530</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>531</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>531</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>531</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>532</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>532</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>532</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>533</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>533</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>533</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>534</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>534</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>534</v>
+      </c>
+      <c r="H56">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>371</v>
+        <v>535</v>
       </c>
       <c r="B57">
-        <f>1+3</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>371</v>
+        <v>535</v>
       </c>
       <c r="E57">
-        <f>4+4</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>371</v>
+        <v>535</v>
       </c>
       <c r="H57">
-        <f>2+5</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>372</v>
+        <v>538</v>
       </c>
       <c r="B58">
-        <f>2</f>
         <v>2</v>
       </c>
       <c r="D58">
-        <v>373</v>
+        <v>536</v>
       </c>
       <c r="E58">
-        <f>1+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>372</v>
+        <v>536</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -7956,99 +10353,62 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>373</v>
+        <v>544</v>
       </c>
       <c r="B59">
-        <f>1+2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>374</v>
+        <v>537</v>
       </c>
       <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>537</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="G59">
-        <v>373</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>374</v>
-      </c>
-      <c r="B60">
-        <f>2+3</f>
-        <v>5</v>
-      </c>
       <c r="D60">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>376</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>377</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
       <c r="G61">
-        <v>377</v>
+        <v>539</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>378</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <f>SUM(E21:E61)</f>
-        <v>10000</v>
-      </c>
       <c r="G62">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f>SUM(B21:B62)</f>
-        <v>10000</v>
-      </c>
-      <c r="H63">
-        <f>SUM(H21:H62)</f>
-        <v>10000</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="G21:H61">
+    <sortCondition ref="G21"/>
+  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
